--- a/dataExcel/【沙漠之鹰 _ 纵横波涛 (崭新出厂)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【沙漠之鹰 _ 纵横波涛 (崭新出厂)】Buff近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,419 +422,419 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-14 22:46:00</v>
+        <v>2023-09-17 21:53:56</v>
       </c>
       <c r="B8">
-        <v>1173.5</v>
+        <v>1214.99</v>
       </c>
       <c r="C8">
-        <v>1717.44</v>
+        <v>1693.68</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E8">
         <v>1150</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-15 02:23:40</v>
+        <v>2023-09-18 01:32:59</v>
       </c>
       <c r="B9">
-        <v>1172</v>
+        <v>1214</v>
       </c>
       <c r="C9">
-        <v>1717.44</v>
+        <v>1693.68</v>
       </c>
       <c r="D9">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E9">
         <v>1150</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-15 06:03:19</v>
+        <v>2023-09-18 05:14:16</v>
       </c>
       <c r="B10">
-        <v>1172</v>
+        <v>1214</v>
       </c>
       <c r="C10">
-        <v>1718.93</v>
+        <v>1693.68</v>
       </c>
       <c r="D10">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E10">
         <v>1150</v>
       </c>
       <c r="F10">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-15 09:43:15</v>
+        <v>2023-09-18 08:50:33</v>
       </c>
       <c r="B11">
-        <v>1174.5</v>
+        <v>1213.5</v>
       </c>
       <c r="C11">
-        <v>1707.21</v>
+        <v>1693.68</v>
       </c>
       <c r="D11">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E11">
         <v>1150</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-16 05:29:21</v>
+        <v>2023-09-18 12:27:58</v>
       </c>
       <c r="B12">
-        <v>1173</v>
+        <v>1210</v>
       </c>
       <c r="C12">
-        <v>1693.96</v>
+        <v>1693.68</v>
       </c>
       <c r="D12">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E12">
-        <v>1130</v>
+        <v>1150</v>
       </c>
       <c r="F12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-16 09:06:16</v>
+        <v>2023-09-18 16:10:06</v>
       </c>
       <c r="B13">
-        <v>1173</v>
+        <v>1207.5</v>
       </c>
       <c r="C13">
-        <v>1693.81</v>
+        <v>1693.68</v>
       </c>
       <c r="D13">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E13">
-        <v>1130</v>
+        <v>1150</v>
       </c>
       <c r="F13">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-16 12:47:00</v>
+        <v>2023-09-18 19:55:32</v>
       </c>
       <c r="B14">
-        <v>1173</v>
+        <v>1200</v>
       </c>
       <c r="C14">
-        <v>1693.81</v>
+        <v>1693.68</v>
       </c>
       <c r="D14">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E14">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="F14">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-16 16:24:31</v>
+        <v>2023-09-18 23:35:18</v>
       </c>
       <c r="B15">
-        <v>1172.88</v>
+        <v>1189</v>
       </c>
       <c r="C15">
-        <v>1693.81</v>
+        <v>1693.17</v>
       </c>
       <c r="D15">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E15">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-16 20:10:00</v>
+        <v>2023-09-18 23:43:45</v>
       </c>
       <c r="B16">
-        <v>1172.88</v>
+        <v>1189</v>
       </c>
       <c r="C16">
-        <v>1693.81</v>
+        <v>1693.17</v>
       </c>
       <c r="D16">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E16">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="F16">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-16 23:46:12</v>
+        <v>2023-09-19 03:26:06</v>
       </c>
       <c r="B17">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="C17">
-        <v>1693.81</v>
+        <v>1692.88</v>
       </c>
       <c r="D17">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E17">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="F17">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-17 03:22:02</v>
+        <v>2023-09-19 07:04:39</v>
       </c>
       <c r="B18">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C18">
-        <v>1693.81</v>
+        <v>1689.55</v>
       </c>
       <c r="D18">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E18">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="F18">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-17 07:03:46</v>
+        <v>2023-09-19 10:42:12</v>
       </c>
       <c r="B19">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C19">
-        <v>1693.68</v>
+        <v>1689.12</v>
       </c>
       <c r="D19">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E19">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="F19">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-17 10:39:15</v>
+        <v>2023-09-19 14:20:34</v>
       </c>
       <c r="B20">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="C20">
-        <v>1693.68</v>
+        <v>1688.39</v>
       </c>
       <c r="D20">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="E20">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-17 14:25:22</v>
+        <v>2023-09-19 18:04:44</v>
       </c>
       <c r="B21">
-        <v>1219.99</v>
+        <v>1196</v>
       </c>
       <c r="C21">
-        <v>1693.68</v>
+        <v>1688.09</v>
       </c>
       <c r="D21">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="E21">
         <v>1150</v>
       </c>
       <c r="F21">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-17 18:08:59</v>
+        <v>2023-09-19 21:45:56</v>
       </c>
       <c r="B22">
-        <v>1219</v>
+        <v>1194</v>
       </c>
       <c r="C22">
-        <v>1693.68</v>
+        <v>1687.44</v>
       </c>
       <c r="D22">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E22">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-17 21:53:56</v>
+        <v>2023-09-19 21:54:54</v>
       </c>
       <c r="B23">
-        <v>1214.99</v>
+        <v>1194</v>
       </c>
       <c r="C23">
-        <v>1693.68</v>
+        <v>1687.44</v>
       </c>
       <c r="D23">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E23">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="F23">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-18 01:32:59</v>
+        <v>2023-09-20 01:33:59</v>
       </c>
       <c r="B24">
-        <v>1214</v>
+        <v>1193</v>
       </c>
       <c r="C24">
-        <v>1693.68</v>
+        <v>1686.71</v>
       </c>
       <c r="D24">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E24">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-18 05:14:16</v>
+        <v>2023-09-20 05:15:04</v>
       </c>
       <c r="B25">
-        <v>1214</v>
+        <v>1192</v>
       </c>
       <c r="C25">
-        <v>1693.68</v>
+        <v>1617.67</v>
       </c>
       <c r="D25">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E25">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-18 08:50:33</v>
+        <v>2023-09-20 08:54:56</v>
       </c>
       <c r="B26">
-        <v>1213.5</v>
+        <v>1191.5</v>
       </c>
       <c r="C26">
-        <v>1693.68</v>
+        <v>1617.96</v>
       </c>
       <c r="D26">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E26">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-18 12:27:58</v>
+        <v>2023-09-20 12:30:35</v>
       </c>
       <c r="B27">
-        <v>1210</v>
+        <v>1190.5</v>
       </c>
       <c r="C27">
-        <v>1693.68</v>
+        <v>1617.52</v>
       </c>
       <c r="D27">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E27">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="F27">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-18 16:10:06</v>
+        <v>2023-09-20 16:03:01</v>
       </c>
       <c r="B28">
-        <v>1207.5</v>
+        <v>1180</v>
       </c>
       <c r="C28">
-        <v>1693.68</v>
+        <v>1617.37</v>
       </c>
       <c r="D28">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E28">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="F28">
         <v>38</v>
@@ -842,19 +842,19 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-18 19:55:32</v>
+        <v>2023-09-20 16:06:51</v>
       </c>
       <c r="B29">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="C29">
-        <v>1693.68</v>
+        <v>1617.37</v>
       </c>
       <c r="D29">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E29">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="F29">
         <v>38</v>
@@ -862,239 +862,239 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-18 23:35:18</v>
+        <v>2023-09-20 19:47:01</v>
       </c>
       <c r="B30">
-        <v>1189</v>
+        <v>1179.5</v>
       </c>
       <c r="C30">
-        <v>1693.17</v>
+        <v>1616.86</v>
       </c>
       <c r="D30">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E30">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="F30">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-18 23:43:45</v>
+        <v>2023-09-20 23:26:55</v>
       </c>
       <c r="B31">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="C31">
-        <v>1693.17</v>
+        <v>1616.28</v>
       </c>
       <c r="D31">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E31">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="F31">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-19 03:26:06</v>
+        <v>2023-09-21 03:07:16</v>
       </c>
       <c r="B32">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C32">
-        <v>1692.88</v>
+        <v>1613.94</v>
       </c>
       <c r="D32">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E32">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="F32">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-19 07:04:39</v>
+        <v>2023-09-21 06:46:56</v>
       </c>
       <c r="B33">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="C33">
-        <v>1689.55</v>
+        <v>1614.72</v>
       </c>
       <c r="D33">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E33">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="F33">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-19 10:42:12</v>
+        <v>2023-09-21 06:55:10</v>
       </c>
       <c r="B34">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="C34">
-        <v>1689.12</v>
+        <v>1614.72</v>
       </c>
       <c r="D34">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E34">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="F34">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-19 14:20:34</v>
+        <v>2023-09-21 10:35:44</v>
       </c>
       <c r="B35">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="C35">
-        <v>1688.39</v>
+        <v>1614.72</v>
       </c>
       <c r="D35">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E35">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="F35">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-19 18:04:44</v>
+        <v>2023-09-21 14:14:35</v>
       </c>
       <c r="B36">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="C36">
-        <v>1688.09</v>
+        <v>1614.72</v>
       </c>
       <c r="D36">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E36">
-        <v>1150</v>
+        <v>1130</v>
       </c>
       <c r="F36">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-19 21:45:56</v>
+        <v>2023-09-21 17:49:24</v>
       </c>
       <c r="B37">
-        <v>1194</v>
+        <v>1179.9</v>
       </c>
       <c r="C37">
-        <v>1687.44</v>
+        <v>1614.72</v>
       </c>
       <c r="D37">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E37">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="F37">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-19 21:54:54</v>
+        <v>2023-09-21 21:26:58</v>
       </c>
       <c r="B38">
-        <v>1194</v>
+        <v>1198.5</v>
       </c>
       <c r="C38">
-        <v>1687.44</v>
+        <v>1614.72</v>
       </c>
       <c r="D38">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E38">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="F38">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-20 01:33:59</v>
+        <v>2023-09-21 21:34:26</v>
       </c>
       <c r="B39">
-        <v>1193</v>
+        <v>1198.5</v>
       </c>
       <c r="C39">
-        <v>1686.71</v>
+        <v>1614.72</v>
       </c>
       <c r="D39">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E39">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="F39">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-20 05:15:04</v>
+        <v>2023-09-23 00:54:29</v>
       </c>
       <c r="B40">
-        <v>1192</v>
+        <v>1166.16</v>
       </c>
       <c r="C40">
-        <v>1617.67</v>
+        <v>1552.86</v>
       </c>
       <c r="D40">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E40">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="F40">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-20 08:54:56</v>
+        <v>2023-09-23 04:49:32</v>
       </c>
       <c r="B41">
-        <v>1191.5</v>
+        <v>1166.16</v>
       </c>
       <c r="C41">
-        <v>1617.96</v>
+        <v>1550.65</v>
       </c>
       <c r="D41">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E41">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="F41">
         <v>41</v>
@@ -1102,399 +1102,399 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-20 12:30:35</v>
+        <v>2023-09-23 05:14:29</v>
       </c>
       <c r="B42">
-        <v>1190.5</v>
+        <v>1166.16</v>
       </c>
       <c r="C42">
-        <v>1617.52</v>
+        <v>1550.65</v>
       </c>
       <c r="D42">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E42">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="F42">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-20 16:03:01</v>
+        <v>2023-09-23 09:00:24</v>
       </c>
       <c r="B43">
-        <v>1180</v>
+        <v>1166.16</v>
       </c>
       <c r="C43">
-        <v>1617.37</v>
+        <v>1548.75</v>
       </c>
       <c r="D43">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E43">
-        <v>1140</v>
+        <v>1070</v>
       </c>
       <c r="F43">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-20 16:06:51</v>
+        <v>2023-09-23 12:39:53</v>
       </c>
       <c r="B44">
-        <v>1180</v>
+        <v>1159.5</v>
       </c>
       <c r="C44">
-        <v>1617.37</v>
+        <v>1548.75</v>
       </c>
       <c r="D44">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E44">
-        <v>1120</v>
+        <v>1070</v>
       </c>
       <c r="F44">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-20 19:47:01</v>
+        <v>2023-09-23 12:41:38</v>
       </c>
       <c r="B45">
-        <v>1179.5</v>
+        <v>1159.5</v>
       </c>
       <c r="C45">
-        <v>1616.86</v>
+        <v>1548.75</v>
       </c>
       <c r="D45">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E45">
-        <v>1120</v>
+        <v>1070</v>
       </c>
       <c r="F45">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-20 23:26:55</v>
+        <v>2023-09-23 16:31:52</v>
       </c>
       <c r="B46">
-        <v>1184</v>
+        <v>1155</v>
       </c>
       <c r="C46">
-        <v>1616.28</v>
+        <v>1548.75</v>
       </c>
       <c r="D46">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E46">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="F46">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-21 03:07:16</v>
+        <v>2023-09-23 20:19:01</v>
       </c>
       <c r="B47">
-        <v>1185</v>
+        <v>1158.5</v>
       </c>
       <c r="C47">
-        <v>1613.94</v>
+        <v>1548.75</v>
       </c>
       <c r="D47">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="E47">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="F47">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-21 06:46:56</v>
+        <v>2023-09-23 23:54:22</v>
       </c>
       <c r="B48">
-        <v>1185</v>
+        <v>1158</v>
       </c>
       <c r="C48">
-        <v>1614.72</v>
+        <v>1548.61</v>
       </c>
       <c r="D48">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="E48">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="F48">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-21 06:55:10</v>
+        <v>2023-09-24 03:46:11</v>
       </c>
       <c r="B49">
-        <v>1185</v>
+        <v>1156.5</v>
       </c>
       <c r="C49">
-        <v>1614.72</v>
+        <v>1548.2</v>
       </c>
       <c r="D49">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E49">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="F49">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-21 10:35:44</v>
+        <v>2023-09-24 07:29:53</v>
       </c>
       <c r="B50">
-        <v>1185</v>
+        <v>1156.5</v>
       </c>
       <c r="C50">
-        <v>1614.72</v>
+        <v>1548.2</v>
       </c>
       <c r="D50">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="E50">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="F50">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-21 14:14:35</v>
+        <v>2023-09-24 11:09:21</v>
       </c>
       <c r="B51">
-        <v>1200</v>
+        <v>1140</v>
       </c>
       <c r="C51">
-        <v>1614.72</v>
+        <v>1547.69</v>
       </c>
       <c r="D51">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E51">
-        <v>1130</v>
+        <v>1100</v>
       </c>
       <c r="F51">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-21 17:49:24</v>
+        <v>2023-09-24 14:42:32</v>
       </c>
       <c r="B52">
-        <v>1179.9</v>
+        <v>1144.5</v>
       </c>
       <c r="C52">
-        <v>1614.72</v>
+        <v>1545.43</v>
       </c>
       <c r="D52">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E52">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="F52">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-21 21:26:58</v>
+        <v>2023-09-24 18:17:07</v>
       </c>
       <c r="B53">
-        <v>1198.5</v>
+        <v>1140</v>
       </c>
       <c r="C53">
-        <v>1614.72</v>
+        <v>1545.36</v>
       </c>
       <c r="D53">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E53">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="F53">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-21 21:34:26</v>
+        <v>2023-09-24 22:01:59</v>
       </c>
       <c r="B54">
-        <v>1198.5</v>
+        <v>1139</v>
       </c>
       <c r="C54">
-        <v>1614.72</v>
+        <v>1545.29</v>
       </c>
       <c r="D54">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E54">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="F54">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-23 00:54:29</v>
+        <v>2023-09-25 01:34:13</v>
       </c>
       <c r="B55">
-        <v>1166.16</v>
+        <v>1139</v>
       </c>
       <c r="C55">
-        <v>1552.86</v>
+        <v>1545.14</v>
       </c>
       <c r="D55">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E55">
         <v>1080</v>
       </c>
       <c r="F55">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-23 04:49:32</v>
+        <v>2023-09-25 05:12:00</v>
       </c>
       <c r="B56">
-        <v>1166.16</v>
+        <v>1139</v>
       </c>
       <c r="C56">
-        <v>1550.65</v>
+        <v>1451.88</v>
       </c>
       <c r="D56">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E56">
         <v>1080</v>
       </c>
       <c r="F56">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-23 05:14:29</v>
+        <v>2023-09-25 08:54:51</v>
       </c>
       <c r="B57">
-        <v>1166.16</v>
+        <v>1139</v>
       </c>
       <c r="C57">
-        <v>1550.65</v>
+        <v>1451.74</v>
       </c>
       <c r="D57">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E57">
         <v>1080</v>
       </c>
       <c r="F57">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-23 09:00:24</v>
+        <v>2023-09-25 12:31:56</v>
       </c>
       <c r="B58">
-        <v>1166.16</v>
+        <v>1154.68</v>
       </c>
       <c r="C58">
-        <v>1548.75</v>
+        <v>1451.74</v>
       </c>
       <c r="D58">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E58">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="F58">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-23 12:39:53</v>
+        <v>2023-09-25 16:14:06</v>
       </c>
       <c r="B59">
-        <v>1159.5</v>
+        <v>1156</v>
       </c>
       <c r="C59">
-        <v>1548.75</v>
+        <v>1451.74</v>
       </c>
       <c r="D59">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E59">
         <v>1070</v>
       </c>
       <c r="F59">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-23 12:41:38</v>
+        <v>2023-09-25 19:52:50</v>
       </c>
       <c r="B60">
-        <v>1159.5</v>
+        <v>1155.5</v>
       </c>
       <c r="C60">
-        <v>1548.75</v>
+        <v>1451.74</v>
       </c>
       <c r="D60">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E60">
-        <v>1070</v>
+        <v>1090</v>
       </c>
       <c r="F60">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-23 16:31:52</v>
+        <v>2023-09-25 23:32:31</v>
       </c>
       <c r="B61">
-        <v>1155</v>
+        <v>1144.5</v>
       </c>
       <c r="C61">
-        <v>1548.75</v>
+        <v>1545.43</v>
       </c>
       <c r="D61">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E61">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="F61">
         <v>35</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-23 20:19:01</v>
+        <v>2023-09-26 03:05:11</v>
       </c>
       <c r="B62">
-        <v>1158.5</v>
+        <v>1144.5</v>
       </c>
       <c r="C62">
-        <v>1548.75</v>
+        <v>1545.36</v>
       </c>
       <c r="D62">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E62">
         <v>1080</v>
@@ -1522,1039 +1522,1039 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-23 23:54:22</v>
+        <v>2023-09-26 06:42:28</v>
       </c>
       <c r="B63">
-        <v>1158</v>
+        <v>1144.5</v>
       </c>
       <c r="C63">
-        <v>1548.61</v>
+        <v>1540.78</v>
       </c>
       <c r="D63">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E63">
         <v>1080</v>
       </c>
       <c r="F63">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-24 03:46:11</v>
+        <v>2023-09-26 10:21:39</v>
       </c>
       <c r="B64">
-        <v>1156.5</v>
+        <v>1143.5</v>
       </c>
       <c r="C64">
-        <v>1548.2</v>
+        <v>1540.78</v>
       </c>
       <c r="D64">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E64">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="F64">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-24 07:29:53</v>
+        <v>2023-09-26 10:29:10</v>
       </c>
       <c r="B65">
-        <v>1156.5</v>
+        <v>1143.5</v>
       </c>
       <c r="C65">
-        <v>1548.2</v>
+        <v>1540.78</v>
       </c>
       <c r="D65">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E65">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="F65">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-24 11:09:21</v>
+        <v>2023-09-26 14:10:06</v>
       </c>
       <c r="B66">
         <v>1140</v>
       </c>
       <c r="C66">
-        <v>1547.69</v>
+        <v>1540.78</v>
       </c>
       <c r="D66">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E66">
-        <v>1100</v>
+        <v>1060</v>
       </c>
       <c r="F66">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-24 14:42:32</v>
+        <v>2023-09-26 17:50:15</v>
       </c>
       <c r="B67">
-        <v>1144.5</v>
+        <v>1100</v>
       </c>
       <c r="C67">
-        <v>1545.43</v>
+        <v>1540.78</v>
       </c>
       <c r="D67">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E67">
-        <v>1100</v>
+        <v>1070</v>
       </c>
       <c r="F67">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-24 18:17:07</v>
+        <v>2023-09-26 21:30:20</v>
       </c>
       <c r="B68">
-        <v>1140</v>
+        <v>1111</v>
       </c>
       <c r="C68">
-        <v>1545.36</v>
+        <v>1540.78</v>
       </c>
       <c r="D68">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E68">
         <v>1080</v>
       </c>
       <c r="F68">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-24 22:01:59</v>
+        <v>2023-09-27 01:10:49</v>
       </c>
       <c r="B69">
-        <v>1139</v>
+        <v>1119.5</v>
       </c>
       <c r="C69">
-        <v>1545.29</v>
+        <v>1418.6</v>
       </c>
       <c r="D69">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E69">
         <v>1080</v>
       </c>
       <c r="F69">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-25 01:34:13</v>
+        <v>2023-09-27 04:44:51</v>
       </c>
       <c r="B70">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C70">
-        <v>1545.14</v>
+        <v>1418.5</v>
       </c>
       <c r="D70">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E70">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="F70">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-25 05:12:00</v>
+        <v>2023-09-27 08:21:14</v>
       </c>
       <c r="B71">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C71">
-        <v>1451.88</v>
+        <v>1540.68</v>
       </c>
       <c r="D71">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E71">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="F71">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-25 08:54:51</v>
+        <v>2023-09-27 08:25:54</v>
       </c>
       <c r="B72">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C72">
-        <v>1451.74</v>
+        <v>1540.68</v>
       </c>
       <c r="D72">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E72">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="F72">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-25 12:31:56</v>
+        <v>2023-09-27 12:05:16</v>
       </c>
       <c r="B73">
-        <v>1154.68</v>
+        <v>1138</v>
       </c>
       <c r="C73">
-        <v>1451.74</v>
+        <v>1540.68</v>
       </c>
       <c r="D73">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E73">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="F73">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-25 16:14:06</v>
+        <v>2023-09-27 15:36:56</v>
       </c>
       <c r="B74">
-        <v>1156</v>
+        <v>1129.5</v>
       </c>
       <c r="C74">
-        <v>1451.74</v>
+        <v>1540.68</v>
       </c>
       <c r="D74">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E74">
         <v>1070</v>
       </c>
       <c r="F74">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-25 19:52:50</v>
+        <v>2023-09-27 19:18:41</v>
       </c>
       <c r="B75">
-        <v>1155.5</v>
+        <v>1119</v>
       </c>
       <c r="C75">
-        <v>1451.74</v>
+        <v>1540.68</v>
       </c>
       <c r="D75">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E75">
-        <v>1090</v>
+        <v>1070</v>
       </c>
       <c r="F75">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-25 23:32:31</v>
+        <v>2023-09-27 22:58:50</v>
       </c>
       <c r="B76">
-        <v>1144.5</v>
+        <v>1118.5</v>
       </c>
       <c r="C76">
-        <v>1545.43</v>
+        <v>1432.18</v>
       </c>
       <c r="D76">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E76">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="F76">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-26 03:05:11</v>
+        <v>2023-09-28 02:39:23</v>
       </c>
       <c r="B77">
-        <v>1144.5</v>
+        <v>1137.1</v>
       </c>
       <c r="C77">
-        <v>1545.36</v>
+        <v>1548.43</v>
       </c>
       <c r="D77">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E77">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="F77">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-26 06:42:28</v>
+        <v>2023-09-28 06:19:14</v>
       </c>
       <c r="B78">
-        <v>1144.5</v>
+        <v>1140</v>
       </c>
       <c r="C78">
-        <v>1540.78</v>
+        <v>1548.22</v>
       </c>
       <c r="D78">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E78">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="F78">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-26 10:21:39</v>
+        <v>2023-09-28 10:00:49</v>
       </c>
       <c r="B79">
-        <v>1143.5</v>
+        <v>1140</v>
       </c>
       <c r="C79">
-        <v>1540.78</v>
+        <v>1548.22</v>
       </c>
       <c r="D79">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E79">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="F79">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-26 10:29:10</v>
+        <v>2023-09-28 13:39:39</v>
       </c>
       <c r="B80">
-        <v>1143.5</v>
+        <v>1150</v>
       </c>
       <c r="C80">
-        <v>1540.78</v>
+        <v>1548.22</v>
       </c>
       <c r="D80">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E80">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="F80">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-26 14:10:06</v>
+        <v>2023-09-28 17:16:24</v>
       </c>
       <c r="B81">
-        <v>1140</v>
+        <v>1110</v>
       </c>
       <c r="C81">
-        <v>1540.78</v>
+        <v>1548.22</v>
       </c>
       <c r="D81">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E81">
-        <v>1060</v>
+        <v>1020</v>
       </c>
       <c r="F81">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-26 17:50:15</v>
+        <v>2023-09-28 20:51:52</v>
       </c>
       <c r="B82">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="C82">
-        <v>1540.78</v>
+        <v>1548.22</v>
       </c>
       <c r="D82">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E82">
-        <v>1070</v>
+        <v>1020</v>
       </c>
       <c r="F82">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-26 21:30:20</v>
+        <v>2023-09-29 00:32:53</v>
       </c>
       <c r="B83">
-        <v>1111</v>
+        <v>1050</v>
       </c>
       <c r="C83">
-        <v>1540.78</v>
+        <v>1548.22</v>
       </c>
       <c r="D83">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E83">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="F83">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-27 01:10:49</v>
+        <v>2023-09-29 04:13:14</v>
       </c>
       <c r="B84">
-        <v>1119.5</v>
+        <v>1084.05</v>
       </c>
       <c r="C84">
-        <v>1418.6</v>
+        <v>1546.16</v>
       </c>
       <c r="D84">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E84">
-        <v>1080</v>
+        <v>1010</v>
       </c>
       <c r="F84">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-27 04:44:51</v>
+        <v>2023-09-29 04:17:58</v>
       </c>
       <c r="B85">
-        <v>1140</v>
+        <v>1084.05</v>
       </c>
       <c r="C85">
-        <v>1418.5</v>
+        <v>1546.16</v>
       </c>
       <c r="D85">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E85">
-        <v>1070</v>
+        <v>1010</v>
       </c>
       <c r="F85">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-27 08:21:14</v>
+        <v>2023-09-29 07:59:07</v>
       </c>
       <c r="B86">
-        <v>1140</v>
+        <v>1084.55</v>
       </c>
       <c r="C86">
-        <v>1540.68</v>
+        <v>1546.16</v>
       </c>
       <c r="D86">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E86">
-        <v>1070</v>
+        <v>1010</v>
       </c>
       <c r="F86">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-27 08:25:54</v>
+        <v>2023-09-29 11:38:06</v>
       </c>
       <c r="B87">
-        <v>1140</v>
+        <v>1084.05</v>
       </c>
       <c r="C87">
-        <v>1540.68</v>
+        <v>1678.96</v>
       </c>
       <c r="D87">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E87">
-        <v>1070</v>
+        <v>1010</v>
       </c>
       <c r="F87">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-27 12:05:16</v>
+        <v>2023-09-29 15:16:38</v>
       </c>
       <c r="B88">
-        <v>1138</v>
+        <v>1080</v>
       </c>
       <c r="C88">
-        <v>1540.68</v>
+        <v>1678.96</v>
       </c>
       <c r="D88">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E88">
-        <v>1070</v>
+        <v>1010</v>
       </c>
       <c r="F88">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-27 15:36:56</v>
+        <v>2023-09-29 18:50:44</v>
       </c>
       <c r="B89">
-        <v>1129.5</v>
+        <v>1066.66</v>
       </c>
       <c r="C89">
-        <v>1540.68</v>
+        <v>1598.07</v>
       </c>
       <c r="D89">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E89">
-        <v>1070</v>
+        <v>1020</v>
       </c>
       <c r="F89">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-27 19:18:41</v>
+        <v>2023-09-29 18:54:50</v>
       </c>
       <c r="B90">
-        <v>1119</v>
+        <v>1066.66</v>
       </c>
       <c r="C90">
-        <v>1540.68</v>
+        <v>1598.07</v>
       </c>
       <c r="D90">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E90">
-        <v>1070</v>
+        <v>1020</v>
       </c>
       <c r="F90">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-27 22:58:50</v>
+        <v>2023-09-29 22:29:22</v>
       </c>
       <c r="B91">
-        <v>1118.5</v>
+        <v>1059</v>
       </c>
       <c r="C91">
-        <v>1432.18</v>
+        <v>1598.07</v>
       </c>
       <c r="D91">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E91">
-        <v>1070</v>
+        <v>1020</v>
       </c>
       <c r="F91">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-28 02:39:23</v>
+        <v>2023-09-30 02:08:29</v>
       </c>
       <c r="B92">
-        <v>1137.1</v>
+        <v>1040</v>
       </c>
       <c r="C92">
-        <v>1548.43</v>
+        <v>1578.07</v>
       </c>
       <c r="D92">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="E92">
-        <v>1060</v>
+        <v>1010</v>
       </c>
       <c r="F92">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-28 06:19:14</v>
+        <v>2023-09-30 05:43:00</v>
       </c>
       <c r="B93">
-        <v>1140</v>
+        <v>1040</v>
       </c>
       <c r="C93">
-        <v>1548.22</v>
+        <v>1576.94</v>
       </c>
       <c r="D93">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="E93">
-        <v>1060</v>
+        <v>1000</v>
       </c>
       <c r="F93">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-28 10:00:49</v>
+        <v>2023-09-30 09:23:30</v>
       </c>
       <c r="B94">
-        <v>1140</v>
+        <v>1048</v>
       </c>
       <c r="C94">
-        <v>1548.22</v>
+        <v>1576.94</v>
       </c>
       <c r="D94">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="E94">
-        <v>1060</v>
+        <v>1000</v>
       </c>
       <c r="F94">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-28 13:39:39</v>
+        <v>2023-09-30 13:05:07</v>
       </c>
       <c r="B95">
-        <v>1150</v>
+        <v>995</v>
       </c>
       <c r="C95">
-        <v>1548.22</v>
+        <v>1497.2</v>
       </c>
       <c r="D95">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="E95">
-        <v>1060</v>
+        <v>816</v>
       </c>
       <c r="F95">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-28 17:16:24</v>
+        <v>2023-09-30 16:45:45</v>
       </c>
       <c r="B96">
-        <v>1110</v>
+        <v>993</v>
       </c>
       <c r="C96">
-        <v>1548.22</v>
+        <v>1497.2</v>
       </c>
       <c r="D96">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="E96">
-        <v>1020</v>
+        <v>816</v>
       </c>
       <c r="F96">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-28 20:51:52</v>
+        <v>2023-09-30 20:26:09</v>
       </c>
       <c r="B97">
-        <v>1085</v>
+        <v>990</v>
       </c>
       <c r="C97">
-        <v>1548.22</v>
+        <v>1497.2</v>
       </c>
       <c r="D97">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E97">
-        <v>1020</v>
+        <v>950</v>
       </c>
       <c r="F97">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-29 00:32:53</v>
+        <v>2023-09-30 20:31:48</v>
       </c>
       <c r="B98">
-        <v>1050</v>
+        <v>990</v>
       </c>
       <c r="C98">
-        <v>1548.22</v>
+        <v>1497.2</v>
       </c>
       <c r="D98">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E98">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="F98">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-29 04:13:14</v>
+        <v>2023-10-01 00:12:20</v>
       </c>
       <c r="B99">
-        <v>1084.05</v>
+        <v>999.5</v>
       </c>
       <c r="C99">
-        <v>1546.16</v>
+        <v>1497.2</v>
       </c>
       <c r="D99">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E99">
-        <v>1010</v>
+        <v>950</v>
       </c>
       <c r="F99">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-29 04:17:58</v>
+        <v>2023-10-01 03:52:12</v>
       </c>
       <c r="B100">
-        <v>1084.05</v>
+        <v>999.5</v>
       </c>
       <c r="C100">
-        <v>1546.16</v>
+        <v>1497.04</v>
       </c>
       <c r="D100">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E100">
-        <v>1010</v>
+        <v>950</v>
       </c>
       <c r="F100">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-29 07:59:07</v>
+        <v>2023-10-01 07:29:21</v>
       </c>
       <c r="B101">
-        <v>1084.55</v>
+        <v>999.5</v>
       </c>
       <c r="C101">
-        <v>1546.16</v>
+        <v>1497.04</v>
       </c>
       <c r="D101">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E101">
-        <v>1010</v>
+        <v>950</v>
       </c>
       <c r="F101">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-09-29 11:38:06</v>
+        <v>2023-10-01 11:05:14</v>
       </c>
       <c r="B102">
-        <v>1084.05</v>
+        <v>1000</v>
       </c>
       <c r="C102">
-        <v>1678.96</v>
+        <v>1497.04</v>
       </c>
       <c r="D102">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E102">
-        <v>1010</v>
+        <v>950</v>
       </c>
       <c r="F102">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-09-29 15:16:38</v>
+        <v>2023-10-01 14:44:04</v>
       </c>
       <c r="B103">
-        <v>1080</v>
+        <v>1009</v>
       </c>
       <c r="C103">
-        <v>1678.96</v>
+        <v>1497.04</v>
       </c>
       <c r="D103">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E103">
-        <v>1010</v>
+        <v>960</v>
       </c>
       <c r="F103">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-09-29 18:50:44</v>
+        <v>2023-10-01 18:23:26</v>
       </c>
       <c r="B104">
-        <v>1066.66</v>
+        <v>1060</v>
       </c>
       <c r="C104">
-        <v>1598.07</v>
+        <v>1510.02</v>
       </c>
       <c r="D104">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E104">
-        <v>1020</v>
+        <v>963</v>
       </c>
       <c r="F104">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-09-29 18:54:50</v>
+        <v>2023-10-01 22:02:43</v>
       </c>
       <c r="B105">
-        <v>1066.66</v>
+        <v>1059.5</v>
       </c>
       <c r="C105">
-        <v>1598.07</v>
+        <v>1510.02</v>
       </c>
       <c r="D105">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E105">
-        <v>1020</v>
+        <v>963</v>
       </c>
       <c r="F105">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-09-29 22:29:22</v>
+        <v>2023-10-02 01:47:07</v>
       </c>
       <c r="B106">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C106">
-        <v>1598.07</v>
+        <v>1510.02</v>
       </c>
       <c r="D106">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E106">
-        <v>1020</v>
+        <v>963</v>
       </c>
       <c r="F106">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-09-30 02:08:29</v>
+        <v>2023-10-02 05:25:06</v>
       </c>
       <c r="B107">
-        <v>1040</v>
+        <v>1060</v>
       </c>
       <c r="C107">
-        <v>1578.07</v>
+        <v>1484.91</v>
       </c>
       <c r="D107">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E107">
-        <v>1010</v>
+        <v>963</v>
       </c>
       <c r="F107">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-09-30 05:43:00</v>
+        <v>2023-10-02 09:01:09</v>
       </c>
       <c r="B108">
-        <v>1040</v>
+        <v>1070</v>
       </c>
       <c r="C108">
-        <v>1576.94</v>
+        <v>1484.91</v>
       </c>
       <c r="D108">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E108">
-        <v>1000</v>
+        <v>963</v>
       </c>
       <c r="F108">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-09-30 09:23:30</v>
+        <v>2023-10-02 12:37:35</v>
       </c>
       <c r="B109">
-        <v>1048</v>
+        <v>1070</v>
       </c>
       <c r="C109">
-        <v>1576.94</v>
+        <v>1484.91</v>
       </c>
       <c r="D109">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E109">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="F109">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-09-30 13:05:07</v>
+        <v>2023-10-02 16:15:27</v>
       </c>
       <c r="B110">
-        <v>995</v>
+        <v>1100</v>
       </c>
       <c r="C110">
-        <v>1497.2</v>
+        <v>1484.91</v>
       </c>
       <c r="D110">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="E110">
-        <v>816</v>
+        <v>1000</v>
       </c>
       <c r="F110">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-09-30 16:45:45</v>
+        <v>2023-10-02 19:52:51</v>
       </c>
       <c r="B111">
-        <v>993</v>
+        <v>1098</v>
       </c>
       <c r="C111">
-        <v>1497.2</v>
+        <v>1480.32</v>
       </c>
       <c r="D111">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E111">
-        <v>816</v>
+        <v>1000</v>
       </c>
       <c r="F111">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-09-30 20:26:09</v>
+        <v>2023-10-02 23:36:09</v>
       </c>
       <c r="B112">
-        <v>990</v>
+        <v>1089</v>
       </c>
       <c r="C112">
-        <v>1497.2</v>
+        <v>1480.32</v>
       </c>
       <c r="D112">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E112">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="F112">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-09-30 20:31:48</v>
+        <v>2023-10-03 03:15:05</v>
       </c>
       <c r="B113">
-        <v>990</v>
+        <v>1066</v>
       </c>
       <c r="C113">
-        <v>1497.2</v>
+        <v>1484.91</v>
       </c>
       <c r="D113">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E113">
-        <v>950</v>
+        <v>975</v>
       </c>
       <c r="F113">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-01 00:12:20</v>
+        <v>2023-10-03 06:54:57</v>
       </c>
       <c r="B114">
-        <v>999.5</v>
+        <v>1067</v>
       </c>
       <c r="C114">
-        <v>1497.2</v>
+        <v>1422.2</v>
       </c>
       <c r="D114">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E114">
-        <v>950</v>
+        <v>975</v>
       </c>
       <c r="F114">
         <v>27</v>
@@ -2562,59 +2562,59 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-01 03:52:12</v>
+        <v>2023-10-03 10:35:01</v>
       </c>
       <c r="B115">
-        <v>999.5</v>
+        <v>1068.5</v>
       </c>
       <c r="C115">
-        <v>1497.04</v>
+        <v>1422.2</v>
       </c>
       <c r="D115">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E115">
-        <v>950</v>
+        <v>975</v>
       </c>
       <c r="F115">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-01 07:29:21</v>
+        <v>2023-10-03 14:16:03</v>
       </c>
       <c r="B116">
-        <v>999.5</v>
+        <v>1065</v>
       </c>
       <c r="C116">
-        <v>1497.04</v>
+        <v>1422.2</v>
       </c>
       <c r="D116">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E116">
-        <v>950</v>
+        <v>975</v>
       </c>
       <c r="F116">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-01 11:05:14</v>
+        <v>2023-10-03 17:53:35</v>
       </c>
       <c r="B117">
+        <v>1055</v>
+      </c>
+      <c r="C117">
+        <v>1395.63</v>
+      </c>
+      <c r="D117">
+        <v>176</v>
+      </c>
+      <c r="E117">
         <v>1000</v>
-      </c>
-      <c r="C117">
-        <v>1497.04</v>
-      </c>
-      <c r="D117">
-        <v>178</v>
-      </c>
-      <c r="E117">
-        <v>950</v>
       </c>
       <c r="F117">
         <v>28</v>
@@ -2622,39 +2622,39 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-01 14:44:04</v>
+        <v>2023-10-03 21:30:47</v>
       </c>
       <c r="B118">
-        <v>1009</v>
+        <v>1040</v>
       </c>
       <c r="C118">
-        <v>1497.04</v>
+        <v>1422.2</v>
       </c>
       <c r="D118">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E118">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="F118">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-01 18:23:26</v>
+        <v>2023-10-04 01:06:53</v>
       </c>
       <c r="B119">
-        <v>1060</v>
+        <v>1037.99</v>
       </c>
       <c r="C119">
-        <v>1510.02</v>
+        <v>1422.2</v>
       </c>
       <c r="D119">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E119">
-        <v>963</v>
+        <v>1000</v>
       </c>
       <c r="F119">
         <v>28</v>
@@ -2662,79 +2662,79 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-01 22:02:43</v>
+        <v>2023-10-04 04:45:05</v>
       </c>
       <c r="B120">
-        <v>1059.5</v>
+        <v>1037.99</v>
       </c>
       <c r="C120">
-        <v>1510.02</v>
+        <v>1425.11</v>
       </c>
       <c r="D120">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E120">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="F120">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-02 01:47:07</v>
+        <v>2023-10-04 08:25:18</v>
       </c>
       <c r="B121">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="C121">
-        <v>1510.02</v>
+        <v>1425.11</v>
       </c>
       <c r="D121">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E121">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="F121">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-02 05:25:06</v>
+        <v>2023-10-04 12:05:36</v>
       </c>
       <c r="B122">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="C122">
-        <v>1484.91</v>
+        <v>1425.11</v>
       </c>
       <c r="D122">
         <v>172</v>
       </c>
       <c r="E122">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="F122">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-02 09:01:09</v>
+        <v>2023-10-04 15:47:14</v>
       </c>
       <c r="B123">
-        <v>1070</v>
+        <v>1040</v>
       </c>
       <c r="C123">
-        <v>1484.91</v>
+        <v>1425.11</v>
       </c>
       <c r="D123">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E123">
-        <v>963</v>
+        <v>990</v>
       </c>
       <c r="F123">
         <v>26</v>
@@ -2742,116 +2742,116 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-02 12:37:35</v>
+        <v>2023-10-04 19:26:55</v>
       </c>
       <c r="B124">
-        <v>1070</v>
+        <v>1027</v>
       </c>
       <c r="C124">
-        <v>1484.91</v>
+        <v>1425.11</v>
       </c>
       <c r="D124">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E124">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="F124">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-02 16:15:27</v>
+        <v>2023-10-04 23:03:57</v>
       </c>
       <c r="B125">
-        <v>1100</v>
+        <v>1014</v>
       </c>
       <c r="C125">
-        <v>1484.91</v>
+        <v>1425.11</v>
       </c>
       <c r="D125">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E125">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="F125">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-02 19:52:51</v>
+        <v>2023-10-05 02:44:52</v>
       </c>
       <c r="B126">
-        <v>1098</v>
+        <v>1014</v>
       </c>
       <c r="C126">
-        <v>1480.32</v>
+        <v>1425.11</v>
       </c>
       <c r="D126">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E126">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="F126">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-02 23:36:09</v>
+        <v>2023-10-05 06:25:15</v>
       </c>
       <c r="B127">
-        <v>1089</v>
+        <v>1010</v>
       </c>
       <c r="C127">
-        <v>1480.32</v>
+        <v>1425.24</v>
       </c>
       <c r="D127">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E127">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="F127">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-03 03:15:05</v>
+        <v>2023-10-05 10:04:52</v>
       </c>
       <c r="B128">
-        <v>1066</v>
+        <v>1009</v>
       </c>
       <c r="C128">
-        <v>1484.91</v>
+        <v>1425.24</v>
       </c>
       <c r="D128">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E128">
         <v>975</v>
       </c>
       <c r="F128">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-03 06:54:57</v>
+        <v>2023-10-05 13:44:58</v>
       </c>
       <c r="B129">
-        <v>1067</v>
+        <v>1005</v>
       </c>
       <c r="C129">
-        <v>1422.2</v>
+        <v>1425.24</v>
       </c>
       <c r="D129">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E129">
         <v>975</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-03 10:35:01</v>
+        <v>2023-10-05 17:25:16</v>
       </c>
       <c r="B130">
-        <v>1068.5</v>
+        <v>1005</v>
       </c>
       <c r="C130">
-        <v>1422.2</v>
+        <v>1425.24</v>
       </c>
       <c r="D130">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E130">
         <v>975</v>
@@ -2882,19 +2882,19 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-03 14:16:03</v>
+        <v>2023-10-05 21:04:37</v>
       </c>
       <c r="B131">
-        <v>1065</v>
+        <v>1004</v>
       </c>
       <c r="C131">
-        <v>1422.2</v>
+        <v>1425.24</v>
       </c>
       <c r="D131">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E131">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="F131">
         <v>26</v>
@@ -2902,499 +2902,499 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-03 17:53:35</v>
+        <v>2023-10-06 00:43:05</v>
       </c>
       <c r="B132">
-        <v>1055</v>
+        <v>999.99</v>
       </c>
       <c r="C132">
-        <v>1395.63</v>
+        <v>1420.06</v>
       </c>
       <c r="D132">
         <v>176</v>
       </c>
       <c r="E132">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="F132">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-03 21:30:47</v>
+        <v>2023-10-06 04:17:04</v>
       </c>
       <c r="B133">
-        <v>1040</v>
+        <v>999</v>
       </c>
       <c r="C133">
-        <v>1422.2</v>
+        <v>1420.51</v>
       </c>
       <c r="D133">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E133">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="F133">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-04 01:06:53</v>
+        <v>2023-10-06 05:20:17</v>
       </c>
       <c r="B134">
-        <v>1037.99</v>
+        <v>999</v>
       </c>
       <c r="C134">
-        <v>1422.2</v>
+        <v>1420.51</v>
       </c>
       <c r="D134">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E134">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="F134">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-04 04:45:05</v>
+        <v>2023-10-06 05:25:43</v>
       </c>
       <c r="B135">
-        <v>1037.99</v>
+        <v>999</v>
       </c>
       <c r="C135">
-        <v>1425.11</v>
+        <v>1420.51</v>
       </c>
       <c r="D135">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E135">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="F135">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-04 08:25:18</v>
+        <v>2023-10-06 06:23:29</v>
       </c>
       <c r="B136">
-        <v>1053</v>
+        <v>999</v>
       </c>
       <c r="C136">
-        <v>1425.11</v>
+        <v>1421.88</v>
       </c>
       <c r="D136">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E136">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="F136">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-04 12:05:36</v>
+        <v>2023-10-06 07:25:44</v>
       </c>
       <c r="B137">
-        <v>1053</v>
+        <v>999</v>
       </c>
       <c r="C137">
-        <v>1425.11</v>
+        <v>1421.88</v>
       </c>
       <c r="D137">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E137">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="F137">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-04 15:47:14</v>
+        <v>2023-10-06 08:29:28</v>
       </c>
       <c r="B138">
-        <v>1040</v>
+        <v>999</v>
       </c>
       <c r="C138">
-        <v>1425.11</v>
+        <v>1421.88</v>
       </c>
       <c r="D138">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E138">
-        <v>990</v>
+        <v>961</v>
       </c>
       <c r="F138">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-04 19:26:55</v>
+        <v>2023-10-06 09:32:57</v>
       </c>
       <c r="B139">
-        <v>1027</v>
+        <v>999</v>
       </c>
       <c r="C139">
-        <v>1425.11</v>
+        <v>1421.88</v>
       </c>
       <c r="D139">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E139">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="F139">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-04 23:03:57</v>
+        <v>2023-10-06 10:39:34</v>
       </c>
       <c r="B140">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="C140">
-        <v>1425.11</v>
+        <v>1421.88</v>
       </c>
       <c r="D140">
         <v>176</v>
       </c>
       <c r="E140">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="F140">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-05 02:44:52</v>
+        <v>2023-10-06 11:34:56</v>
       </c>
       <c r="B141">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="C141">
-        <v>1425.11</v>
+        <v>1425.7</v>
       </c>
       <c r="D141">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E141">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F141">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-05 06:25:15</v>
+        <v>2023-10-06 12:38:59</v>
       </c>
       <c r="B142">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="C142">
-        <v>1425.24</v>
+        <v>1425.7</v>
       </c>
       <c r="D142">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E142">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F142">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-05 10:04:52</v>
+        <v>2023-10-06 13:41:12</v>
       </c>
       <c r="B143">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="C143">
-        <v>1425.24</v>
+        <v>1425.7</v>
       </c>
       <c r="D143">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E143">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F143">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-05 13:44:58</v>
+        <v>2023-10-06 14:47:52</v>
       </c>
       <c r="B144">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C144">
-        <v>1425.24</v>
+        <v>1425.7</v>
       </c>
       <c r="D144">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E144">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F144">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-05 17:25:16</v>
+        <v>2023-10-06 15:50:27</v>
       </c>
       <c r="B145">
-        <v>1005</v>
+        <v>999.99</v>
       </c>
       <c r="C145">
-        <v>1425.24</v>
+        <v>1425.7</v>
       </c>
       <c r="D145">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E145">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="F145">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-05 21:04:37</v>
+        <v>2023-10-06 15:56:17</v>
       </c>
       <c r="B146">
-        <v>1004</v>
+        <v>999.99</v>
       </c>
       <c r="C146">
-        <v>1425.24</v>
+        <v>1425.7</v>
       </c>
       <c r="D146">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E146">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F146">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-06 00:43:05</v>
+        <v>2023-10-06 16:57:27</v>
       </c>
       <c r="B147">
-        <v>999.99</v>
+        <v>999</v>
       </c>
       <c r="C147">
-        <v>1420.06</v>
+        <v>1425.7</v>
       </c>
       <c r="D147">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E147">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F147">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-06 04:17:04</v>
+        <v>2023-10-06 17:59:50</v>
       </c>
       <c r="B148">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="C148">
-        <v>1420.51</v>
+        <v>1425.7</v>
       </c>
       <c r="D148">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E148">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F148">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-06 05:20:17</v>
+        <v>2023-10-06 19:00:16</v>
       </c>
       <c r="B149">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="C149">
-        <v>1420.51</v>
+        <v>1425.7</v>
       </c>
       <c r="D149">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E149">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F149">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-06 05:25:43</v>
+        <v>2023-10-06 19:05:22</v>
       </c>
       <c r="B150">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="C150">
-        <v>1420.51</v>
+        <v>1425.7</v>
       </c>
       <c r="D150">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E150">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F150">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-06 06:23:29</v>
+        <v>2023-10-06 20:08:32</v>
       </c>
       <c r="B151">
         <v>999</v>
       </c>
       <c r="C151">
-        <v>1421.88</v>
+        <v>1425.7</v>
       </c>
       <c r="D151">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E151">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F151">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-06 07:25:44</v>
+        <v>2023-10-06 21:09:02</v>
       </c>
       <c r="B152">
         <v>999</v>
       </c>
       <c r="C152">
-        <v>1421.88</v>
+        <v>1425.7</v>
       </c>
       <c r="D152">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E152">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F152">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-06 08:29:28</v>
+        <v>2023-10-06 22:10:32</v>
       </c>
       <c r="B153">
         <v>999</v>
       </c>
       <c r="C153">
-        <v>1421.88</v>
+        <v>1425.7</v>
       </c>
       <c r="D153">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E153">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F153">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-06 09:32:57</v>
+        <v>2023-10-06 22:13:56</v>
       </c>
       <c r="B154">
         <v>999</v>
       </c>
       <c r="C154">
-        <v>1421.88</v>
+        <v>1425.7</v>
       </c>
       <c r="D154">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E154">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F154">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-06 10:39:34</v>
+        <v>2023-10-06 23:15:25</v>
       </c>
       <c r="B155">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C155">
-        <v>1421.88</v>
+        <v>1425.7</v>
       </c>
       <c r="D155">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E155">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F155">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-06 11:34:56</v>
+        <v>2023-10-07 00:21:04</v>
       </c>
       <c r="B156">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C156">
         <v>1425.7</v>
       </c>
       <c r="D156">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E156">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F156">
         <v>30</v>
@@ -3402,27 +3402,27 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-06 12:38:59</v>
+        <v>2023-10-07 01:20:42</v>
       </c>
       <c r="B157">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C157">
         <v>1425.7</v>
       </c>
       <c r="D157">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E157">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F157">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-06 13:41:12</v>
+        <v>2023-10-07 01:25:23</v>
       </c>
       <c r="B158">
         <v>1000</v>
@@ -3431,18 +3431,18 @@
         <v>1425.7</v>
       </c>
       <c r="D158">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E158">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F158">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-06 14:47:52</v>
+        <v>2023-10-07 02:27:18</v>
       </c>
       <c r="B159">
         <v>1000</v>
@@ -3454,147 +3454,147 @@
         <v>172</v>
       </c>
       <c r="E159">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F159">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-06 15:50:27</v>
+        <v>2023-10-07 03:27:38</v>
       </c>
       <c r="B160">
-        <v>999.99</v>
+        <v>1000</v>
       </c>
       <c r="C160">
         <v>1425.7</v>
       </c>
       <c r="D160">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E160">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F160">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-06 15:56:17</v>
+        <v>2023-10-07 04:27:19</v>
       </c>
       <c r="B161">
-        <v>999.99</v>
+        <v>1000</v>
       </c>
       <c r="C161">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D161">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E161">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F161">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-06 16:57:27</v>
+        <v>2023-10-07 05:31:17</v>
       </c>
       <c r="B162">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C162">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D162">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E162">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F162">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-06 17:59:50</v>
+        <v>2023-10-07 06:34:34</v>
       </c>
       <c r="B163">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="C163">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D163">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E163">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F163">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-06 19:00:16</v>
+        <v>2023-10-07 07:36:23</v>
       </c>
       <c r="B164">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="C164">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D164">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E164">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F164">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-06 19:05:22</v>
+        <v>2023-10-07 08:36:46</v>
       </c>
       <c r="B165">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="C165">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D165">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E165">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F165">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-06 20:08:32</v>
+        <v>2023-10-07 09:36:46</v>
       </c>
       <c r="B166">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C166">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D166">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E166">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F166">
         <v>29</v>
@@ -3602,76 +3602,76 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-06 21:09:02</v>
+        <v>2023-10-07 10:41:09</v>
       </c>
       <c r="B167">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C167">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D167">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E167">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F167">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-06 22:10:32</v>
+        <v>2023-10-07 10:48:32</v>
       </c>
       <c r="B168">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C168">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D168">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E168">
         <v>963</v>
       </c>
       <c r="F168">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-06 22:13:56</v>
+        <v>2023-10-07 11:48:45</v>
       </c>
       <c r="B169">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C169">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D169">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E169">
         <v>963</v>
       </c>
       <c r="F169">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-06 23:15:25</v>
+        <v>2023-10-07 12:51:00</v>
       </c>
       <c r="B170">
         <v>1000</v>
       </c>
       <c r="C170">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D170">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E170">
         <v>963</v>
@@ -3682,16 +3682,16 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-07 00:21:04</v>
+        <v>2023-10-07 12:53:40</v>
       </c>
       <c r="B171">
         <v>1000</v>
       </c>
       <c r="C171">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D171">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E171">
         <v>963</v>
@@ -3702,33 +3702,33 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-07 01:20:42</v>
+        <v>2023-10-07 13:56:48</v>
       </c>
       <c r="B172">
         <v>1000</v>
       </c>
       <c r="C172">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D172">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E172">
         <v>963</v>
       </c>
       <c r="F172">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-07 01:25:23</v>
+        <v>2023-10-07 14:56:36</v>
       </c>
       <c r="B173">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="C173">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D173">
         <v>172</v>
@@ -3737,21 +3737,21 @@
         <v>963</v>
       </c>
       <c r="F173">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-07 02:27:18</v>
+        <v>2023-10-07 16:00:54</v>
       </c>
       <c r="B174">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="C174">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D174">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E174">
         <v>963</v>
@@ -3762,19 +3762,19 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-07 03:27:38</v>
+        <v>2023-10-07 16:08:59</v>
       </c>
       <c r="B175">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="C175">
-        <v>1425.7</v>
+        <v>1424.73</v>
       </c>
       <c r="D175">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E175">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F175">
         <v>30</v>
@@ -3782,19 +3782,19 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-07 04:27:19</v>
+        <v>2023-10-07 17:09:34</v>
       </c>
       <c r="B176">
-        <v>1000</v>
+        <v>1014.5</v>
       </c>
       <c r="C176">
         <v>1424.73</v>
       </c>
       <c r="D176">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E176">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F176">
         <v>30</v>
@@ -3802,19 +3802,19 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-07 05:31:17</v>
+        <v>2023-10-07 18:07:43</v>
       </c>
       <c r="B177">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="C177">
         <v>1424.73</v>
       </c>
       <c r="D177">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E177">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F177">
         <v>30</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-07 06:34:34</v>
+        <v>2023-10-07 19:09:58</v>
       </c>
       <c r="B178">
         <v>1000</v>
@@ -3831,21 +3831,21 @@
         <v>1424.73</v>
       </c>
       <c r="D178">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E178">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F178">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-07 07:36:23</v>
+        <v>2023-10-07 19:16:50</v>
       </c>
       <c r="B179">
-        <v>1000</v>
+        <v>1014.5</v>
       </c>
       <c r="C179">
         <v>1424.73</v>
@@ -3854,27 +3854,27 @@
         <v>173</v>
       </c>
       <c r="E179">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F179">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-07 08:36:46</v>
+        <v>2023-10-07 20:17:31</v>
       </c>
       <c r="B180">
-        <v>1000</v>
+        <v>1014.5</v>
       </c>
       <c r="C180">
         <v>1424.73</v>
       </c>
       <c r="D180">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E180">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F180">
         <v>30</v>
@@ -3882,19 +3882,19 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-07 09:36:46</v>
+        <v>2023-10-07 21:20:31</v>
       </c>
       <c r="B181">
-        <v>1000</v>
+        <v>1014.5</v>
       </c>
       <c r="C181">
         <v>1424.73</v>
       </c>
       <c r="D181">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E181">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F181">
         <v>29</v>
@@ -3902,79 +3902,79 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-07 10:41:09</v>
+        <v>2023-10-07 22:19:41</v>
       </c>
       <c r="B182">
-        <v>1000</v>
+        <v>1014.5</v>
       </c>
       <c r="C182">
         <v>1424.73</v>
       </c>
       <c r="D182">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E182">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F182">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-07 10:48:32</v>
+        <v>2023-10-07 23:19:22</v>
       </c>
       <c r="B183">
-        <v>1000</v>
+        <v>1014.5</v>
       </c>
       <c r="C183">
         <v>1424.73</v>
       </c>
       <c r="D183">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E183">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F183">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-07 11:48:45</v>
+        <v>2023-10-08 00:21:07</v>
       </c>
       <c r="B184">
-        <v>1000</v>
+        <v>1014.5</v>
       </c>
       <c r="C184">
         <v>1424.73</v>
       </c>
       <c r="D184">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E184">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F184">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-07 12:51:00</v>
+        <v>2023-10-08 00:26:38</v>
       </c>
       <c r="B185">
-        <v>1000</v>
+        <v>1014.5</v>
       </c>
       <c r="C185">
         <v>1424.73</v>
       </c>
       <c r="D185">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E185">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F185">
         <v>30</v>
@@ -3982,19 +3982,19 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-07 12:53:40</v>
+        <v>2023-10-08 01:29:11</v>
       </c>
       <c r="B186">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="C186">
         <v>1424.73</v>
       </c>
       <c r="D186">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E186">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F186">
         <v>30</v>
@@ -4002,59 +4002,59 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-07 13:56:48</v>
+        <v>2023-10-08 02:30:33</v>
       </c>
       <c r="B187">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="C187">
         <v>1424.73</v>
       </c>
       <c r="D187">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E187">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F187">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-07 14:56:36</v>
+        <v>2023-10-08 03:31:57</v>
       </c>
       <c r="B188">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C188">
         <v>1424.73</v>
       </c>
       <c r="D188">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E188">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F188">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-07 16:00:54</v>
+        <v>2023-10-08 04:32:49</v>
       </c>
       <c r="B189">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C189">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D189">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E189">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="F189">
         <v>30</v>
@@ -4062,19 +4062,19 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-07 16:08:59</v>
+        <v>2023-10-08 05:37:56</v>
       </c>
       <c r="B190">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C190">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D190">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E190">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="F190">
         <v>30</v>
@@ -4082,59 +4082,59 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-07 17:09:34</v>
+        <v>2023-10-08 06:40:25</v>
       </c>
       <c r="B191">
-        <v>1014.5</v>
+        <v>1013</v>
       </c>
       <c r="C191">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D191">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E191">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="F191">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-07 18:07:43</v>
+        <v>2023-10-08 07:40:33</v>
       </c>
       <c r="B192">
-        <v>1011</v>
+        <v>1012.5</v>
       </c>
       <c r="C192">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D192">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E192">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="F192">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-07 19:09:58</v>
+        <v>2023-10-08 07:46:50</v>
       </c>
       <c r="B193">
-        <v>1000</v>
+        <v>1012.5</v>
       </c>
       <c r="C193">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D193">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E193">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="F193">
         <v>29</v>
@@ -4142,19 +4142,19 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-07 19:16:50</v>
+        <v>2023-10-08 08:48:27</v>
       </c>
       <c r="B194">
-        <v>1014.5</v>
+        <v>1012.5</v>
       </c>
       <c r="C194">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D194">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E194">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="F194">
         <v>29</v>
@@ -4162,36 +4162,36 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-07 20:17:31</v>
+        <v>2023-10-08 09:45:35</v>
       </c>
       <c r="B195">
-        <v>1014.5</v>
+        <v>1012</v>
       </c>
       <c r="C195">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D195">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E195">
         <v>974</v>
       </c>
       <c r="F195">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-07 21:20:31</v>
+        <v>2023-10-08 10:48:12</v>
       </c>
       <c r="B196">
-        <v>1014.5</v>
+        <v>1012</v>
       </c>
       <c r="C196">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D196">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E196">
         <v>974</v>
@@ -4202,13 +4202,13 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-07 22:19:41</v>
+        <v>2023-10-08 11:51:39</v>
       </c>
       <c r="B197">
         <v>1014.5</v>
       </c>
       <c r="C197">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D197">
         <v>171</v>
@@ -4222,13 +4222,13 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-07 23:19:22</v>
+        <v>2023-10-08 11:58:01</v>
       </c>
       <c r="B198">
         <v>1014.5</v>
       </c>
       <c r="C198">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D198">
         <v>171</v>
@@ -4242,53 +4242,53 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-08 00:21:07</v>
+        <v>2023-10-08 13:01:12</v>
       </c>
       <c r="B199">
-        <v>1014.5</v>
+        <v>1025</v>
       </c>
       <c r="C199">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D199">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E199">
         <v>974</v>
       </c>
       <c r="F199">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-08 00:26:38</v>
+        <v>2023-10-08 13:05:39</v>
       </c>
       <c r="B200">
-        <v>1014.5</v>
+        <v>1025</v>
       </c>
       <c r="C200">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D200">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E200">
         <v>974</v>
       </c>
       <c r="F200">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-08 01:29:11</v>
+        <v>2023-10-08 14:09:03</v>
       </c>
       <c r="B201">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="C201">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D201">
         <v>171</v>
@@ -4297,75 +4297,75 @@
         <v>974</v>
       </c>
       <c r="F201">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-08 02:30:33</v>
+        <v>2023-10-08 15:05:33</v>
       </c>
       <c r="B202">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="C202">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D202">
         <v>171</v>
       </c>
       <c r="E202">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F202">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-08 03:31:57</v>
+        <v>2023-10-08 16:08:34</v>
       </c>
       <c r="B203">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="C203">
-        <v>1424.73</v>
+        <v>1424.57</v>
       </c>
       <c r="D203">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E203">
-        <v>974</v>
+        <v>1000</v>
       </c>
       <c r="F203">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>2023-10-08 04:32:49</v>
+        <v>2023-10-08 17:11:03</v>
       </c>
       <c r="B204">
-        <v>1013</v>
+        <v>1055.5</v>
       </c>
       <c r="C204">
         <v>1424.57</v>
       </c>
       <c r="D204">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E204">
-        <v>974</v>
+        <v>1000</v>
       </c>
       <c r="F204">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>2023-10-08 05:37:56</v>
+        <v>2023-10-08 18:13:11</v>
       </c>
       <c r="B205">
-        <v>1013</v>
+        <v>1060</v>
       </c>
       <c r="C205">
         <v>1424.57</v>
@@ -4374,18 +4374,18 @@
         <v>171</v>
       </c>
       <c r="E205">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="F205">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>2023-10-08 06:40:25</v>
+        <v>2023-10-08 19:18:53</v>
       </c>
       <c r="B206">
-        <v>1013</v>
+        <v>1060</v>
       </c>
       <c r="C206">
         <v>1424.57</v>
@@ -4394,18 +4394,18 @@
         <v>171</v>
       </c>
       <c r="E206">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="F206">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>2023-10-08 07:40:33</v>
+        <v>2023-10-08 20:17:46</v>
       </c>
       <c r="B207">
-        <v>1012.5</v>
+        <v>1059.99</v>
       </c>
       <c r="C207">
         <v>1424.57</v>
@@ -4414,18 +4414,18 @@
         <v>172</v>
       </c>
       <c r="E207">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="F207">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>2023-10-08 07:46:50</v>
+        <v>2023-10-08 21:20:47</v>
       </c>
       <c r="B208">
-        <v>1012.5</v>
+        <v>1058</v>
       </c>
       <c r="C208">
         <v>1424.57</v>
@@ -4434,127 +4434,127 @@
         <v>172</v>
       </c>
       <c r="E208">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="F208">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>2023-10-08 08:48:27</v>
+        <v>2023-10-08 22:22:29</v>
       </c>
       <c r="B209">
-        <v>1012.5</v>
+        <v>1058</v>
       </c>
       <c r="C209">
         <v>1424.57</v>
       </c>
       <c r="D209">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E209">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="F209">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>2023-10-08 09:45:35</v>
+        <v>2023-10-08 23:30:02</v>
       </c>
       <c r="B210">
-        <v>1012</v>
+        <v>1055</v>
       </c>
       <c r="C210">
         <v>1424.57</v>
       </c>
       <c r="D210">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E210">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="F210">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>2023-10-08 10:48:12</v>
+        <v>2023-10-09 00:32:46</v>
       </c>
       <c r="B211">
-        <v>1012</v>
+        <v>1055</v>
       </c>
       <c r="C211">
         <v>1424.57</v>
       </c>
       <c r="D211">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E211">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="F211">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>2023-10-08 11:51:39</v>
+        <v>2023-10-09 01:33:48</v>
       </c>
       <c r="B212">
-        <v>1014.5</v>
+        <v>1054.5</v>
       </c>
       <c r="C212">
         <v>1424.57</v>
       </c>
       <c r="D212">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E212">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="F212">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>2023-10-08 11:58:01</v>
+        <v>2023-10-09 02:37:55</v>
       </c>
       <c r="B213">
-        <v>1014.5</v>
+        <v>1054</v>
       </c>
       <c r="C213">
         <v>1424.57</v>
       </c>
       <c r="D213">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E213">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="F213">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>2023-10-08 13:01:12</v>
+        <v>2023-10-09 06:15:42</v>
       </c>
       <c r="B214">
-        <v>1025</v>
+        <v>1054</v>
       </c>
       <c r="C214">
-        <v>1424.57</v>
+        <v>1574.87</v>
       </c>
       <c r="D214">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E214">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="F214">
         <v>31</v>
@@ -4562,259 +4562,259 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>2023-10-08 13:05:39</v>
+        <v>2023-10-09 09:53:02</v>
       </c>
       <c r="B215">
-        <v>1025</v>
+        <v>1049.5</v>
       </c>
       <c r="C215">
-        <v>1424.57</v>
+        <v>1574.87</v>
       </c>
       <c r="D215">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E215">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="F215">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>2023-10-08 14:09:03</v>
+        <v>2023-10-09 13:30:56</v>
       </c>
       <c r="B216">
-        <v>1025</v>
+        <v>1046.5</v>
       </c>
       <c r="C216">
-        <v>1424.57</v>
+        <v>1574.87</v>
       </c>
       <c r="D216">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E216">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="F216">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>2023-10-08 15:05:33</v>
+        <v>2023-10-09 17:08:08</v>
       </c>
       <c r="B217">
-        <v>1025</v>
+        <v>1045</v>
       </c>
       <c r="C217">
-        <v>1424.57</v>
+        <v>1574.87</v>
       </c>
       <c r="D217">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E217">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="F217">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>2023-10-08 16:08:34</v>
+        <v>2023-10-09 20:50:34</v>
       </c>
       <c r="B218">
-        <v>1025</v>
+        <v>1044</v>
       </c>
       <c r="C218">
-        <v>1424.57</v>
+        <v>1531.05</v>
       </c>
       <c r="D218">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E218">
-        <v>1000</v>
+        <v>963</v>
       </c>
       <c r="F218">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>2023-10-08 17:11:03</v>
+        <v>2023-10-10 00:30:55</v>
       </c>
       <c r="B219">
-        <v>1055.5</v>
+        <v>1043.5</v>
       </c>
       <c r="C219">
-        <v>1424.57</v>
+        <v>1531.05</v>
       </c>
       <c r="D219">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="E219">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="F219">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>2023-10-08 18:13:11</v>
+        <v>2023-10-10 04:11:32</v>
       </c>
       <c r="B220">
-        <v>1060</v>
+        <v>1043.5</v>
       </c>
       <c r="C220">
-        <v>1424.57</v>
+        <v>1574.87</v>
       </c>
       <c r="D220">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="E220">
-        <v>997</v>
+        <v>965</v>
       </c>
       <c r="F220">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>2023-10-08 19:18:53</v>
+        <v>2023-10-10 07:50:21</v>
       </c>
       <c r="B221">
-        <v>1060</v>
+        <v>1043.5</v>
       </c>
       <c r="C221">
-        <v>1424.57</v>
+        <v>1595.39</v>
       </c>
       <c r="D221">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="E221">
-        <v>998</v>
+        <v>965</v>
       </c>
       <c r="F221">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>2023-10-08 20:17:46</v>
+        <v>2023-10-10 11:30:42</v>
       </c>
       <c r="B222">
-        <v>1059.99</v>
+        <v>1043</v>
       </c>
       <c r="C222">
-        <v>1424.57</v>
+        <v>1531.3</v>
       </c>
       <c r="D222">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="E222">
-        <v>998</v>
+        <v>967</v>
       </c>
       <c r="F222">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>2023-10-08 21:20:47</v>
+        <v>2023-10-10 15:08:42</v>
       </c>
       <c r="B223">
-        <v>1058</v>
+        <v>1044.5</v>
       </c>
       <c r="C223">
-        <v>1424.57</v>
+        <v>1531.3</v>
       </c>
       <c r="D223">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="E223">
-        <v>998</v>
+        <v>967</v>
       </c>
       <c r="F223">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>2023-10-08 22:22:29</v>
+        <v>2023-10-10 18:45:58</v>
       </c>
       <c r="B224">
-        <v>1058</v>
+        <v>1031</v>
       </c>
       <c r="C224">
-        <v>1424.57</v>
+        <v>1595.39</v>
       </c>
       <c r="D224">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E224">
-        <v>998</v>
+        <v>970</v>
       </c>
       <c r="F224">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>2023-10-08 23:30:02</v>
+        <v>2023-10-10 22:21:49</v>
       </c>
       <c r="B225">
-        <v>1055</v>
+        <v>1027.5</v>
       </c>
       <c r="C225">
-        <v>1424.57</v>
+        <v>1595.39</v>
       </c>
       <c r="D225">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E225">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="F225">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>2023-10-09 00:32:46</v>
+        <v>2023-10-11 01:59:53</v>
       </c>
       <c r="B226">
-        <v>1055</v>
+        <v>1027</v>
       </c>
       <c r="C226">
-        <v>1424.57</v>
+        <v>1596.12</v>
       </c>
       <c r="D226">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="E226">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="F226">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>2023-10-09 01:33:48</v>
+        <v>2023-10-11 05:39:08</v>
       </c>
       <c r="B227">
-        <v>1054.5</v>
+        <v>1027</v>
       </c>
       <c r="C227">
-        <v>1424.57</v>
+        <v>1600.12</v>
       </c>
       <c r="D227">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E227">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="F227">
         <v>31</v>
@@ -4822,19 +4822,19 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>2023-10-09 02:37:55</v>
+        <v>2023-10-11 09:20:53</v>
       </c>
       <c r="B228">
-        <v>1054</v>
+        <v>1023</v>
       </c>
       <c r="C228">
-        <v>1424.57</v>
+        <v>1569.26</v>
       </c>
       <c r="D228">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E228">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="F228">
         <v>31</v>
@@ -4842,19 +4842,19 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>2023-10-09 06:15:42</v>
+        <v>2023-10-11 13:00:37</v>
       </c>
       <c r="B229">
-        <v>1054</v>
+        <v>1020</v>
       </c>
       <c r="C229">
-        <v>1574.87</v>
+        <v>1569.26</v>
       </c>
       <c r="D229">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E229">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="F229">
         <v>31</v>
@@ -4862,159 +4862,159 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>2023-10-09 09:53:02</v>
+        <v>2023-10-11 16:40:52</v>
       </c>
       <c r="B230">
-        <v>1049.5</v>
+        <v>1000</v>
       </c>
       <c r="C230">
-        <v>1574.87</v>
+        <v>1569.26</v>
       </c>
       <c r="D230">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E230">
-        <v>998</v>
+        <v>968</v>
       </c>
       <c r="F230">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>2023-10-09 13:30:56</v>
+        <v>2023-10-11 20:20:25</v>
       </c>
       <c r="B231">
-        <v>1046.5</v>
+        <v>999.5</v>
       </c>
       <c r="C231">
-        <v>1574.87</v>
+        <v>1468.73</v>
       </c>
       <c r="D231">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E231">
-        <v>998</v>
+        <v>968</v>
       </c>
       <c r="F231">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>2023-10-09 17:08:08</v>
+        <v>2023-10-12 00:00:21</v>
       </c>
       <c r="B232">
-        <v>1045</v>
+        <v>998.5</v>
       </c>
       <c r="C232">
-        <v>1574.87</v>
+        <v>1567.8</v>
       </c>
       <c r="D232">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E232">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="F232">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>2023-10-09 20:50:34</v>
+        <v>2023-10-12 03:38:40</v>
       </c>
       <c r="B233">
-        <v>1044</v>
+        <v>999</v>
       </c>
       <c r="C233">
-        <v>1531.05</v>
+        <v>1555.01</v>
       </c>
       <c r="D233">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E233">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="F233">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>2023-10-10 00:30:55</v>
+        <v>2023-10-12 07:16:54</v>
       </c>
       <c r="B234">
-        <v>1043.5</v>
+        <v>999</v>
       </c>
       <c r="C234">
-        <v>1531.05</v>
+        <v>1568.88</v>
       </c>
       <c r="D234">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E234">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="F234">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>2023-10-10 04:11:32</v>
+        <v>2023-10-12 10:53:27</v>
       </c>
       <c r="B235">
-        <v>1043.5</v>
+        <v>999</v>
       </c>
       <c r="C235">
-        <v>1574.87</v>
+        <v>1568.88</v>
       </c>
       <c r="D235">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E235">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="F235">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>2023-10-10 07:50:21</v>
+        <v>2023-10-12 14:32:26</v>
       </c>
       <c r="B236">
-        <v>1043.5</v>
+        <v>1000</v>
       </c>
       <c r="C236">
-        <v>1595.39</v>
+        <v>1568.88</v>
       </c>
       <c r="D236">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E236">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="F236">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>2023-10-10 11:30:42</v>
+        <v>2023-10-12 18:11:31</v>
       </c>
       <c r="B237">
-        <v>1043</v>
+        <v>998.5</v>
       </c>
       <c r="C237">
-        <v>1531.3</v>
+        <v>1568.88</v>
       </c>
       <c r="D237">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E237">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="F237">
         <v>32</v>
@@ -5022,19 +5022,19 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>2023-10-10 15:08:42</v>
+        <v>2023-10-12 21:51:31</v>
       </c>
       <c r="B238">
-        <v>1044.5</v>
+        <v>998.5</v>
       </c>
       <c r="C238">
-        <v>1531.3</v>
+        <v>1568.88</v>
       </c>
       <c r="D238">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E238">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="F238">
         <v>33</v>
@@ -5042,36 +5042,36 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>2023-10-10 18:45:58</v>
+        <v>2023-10-13 01:33:45</v>
       </c>
       <c r="B239">
-        <v>1031</v>
+        <v>998.5</v>
       </c>
       <c r="C239">
-        <v>1595.39</v>
+        <v>1568.88</v>
       </c>
       <c r="D239">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E239">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="F239">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>2023-10-10 22:21:49</v>
+        <v>2023-10-13 05:11:38</v>
       </c>
       <c r="B240">
-        <v>1027.5</v>
+        <v>998.5</v>
       </c>
       <c r="C240">
-        <v>1595.39</v>
+        <v>1569.33</v>
       </c>
       <c r="D240">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E240">
         <v>980</v>
@@ -5082,36 +5082,36 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>2023-10-11 01:59:53</v>
+        <v>2023-10-13 08:47:57</v>
       </c>
       <c r="B241">
-        <v>1027</v>
+        <v>998.5</v>
       </c>
       <c r="C241">
-        <v>1596.12</v>
+        <v>1571.88</v>
       </c>
       <c r="D241">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E241">
         <v>980</v>
       </c>
       <c r="F241">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>2023-10-11 05:39:08</v>
+        <v>2023-10-13 12:25:16</v>
       </c>
       <c r="B242">
-        <v>1027</v>
+        <v>998.5</v>
       </c>
       <c r="C242">
-        <v>1600.12</v>
+        <v>1571.88</v>
       </c>
       <c r="D242">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E242">
         <v>980</v>
@@ -5122,139 +5122,139 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>2023-10-11 09:20:53</v>
+        <v>2023-10-13 16:03:28</v>
       </c>
       <c r="B243">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="C243">
-        <v>1569.26</v>
+        <v>1571.88</v>
       </c>
       <c r="D243">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E243">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="F243">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>2023-10-11 13:00:37</v>
+        <v>2023-10-13 19:41:19</v>
       </c>
       <c r="B244">
-        <v>1020</v>
+        <v>1010.22</v>
       </c>
       <c r="C244">
-        <v>1569.26</v>
+        <v>1571.88</v>
       </c>
       <c r="D244">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E244">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="F244">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>2023-10-11 16:40:52</v>
+        <v>2023-10-13 23:22:23</v>
       </c>
       <c r="B245">
-        <v>1000</v>
+        <v>1010.22</v>
       </c>
       <c r="C245">
-        <v>1569.26</v>
+        <v>1526.97</v>
       </c>
       <c r="D245">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E245">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="F245">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>2023-10-11 20:20:25</v>
+        <v>2023-10-14 03:03:29</v>
       </c>
       <c r="B246">
-        <v>999.5</v>
+        <v>1010.22</v>
       </c>
       <c r="C246">
-        <v>1468.73</v>
+        <v>1526.97</v>
       </c>
       <c r="D246">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E246">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="F246">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>2023-10-12 00:00:21</v>
+        <v>2023-10-14 06:43:37</v>
       </c>
       <c r="B247">
-        <v>998.5</v>
+        <v>1010.22</v>
       </c>
       <c r="C247">
-        <v>1567.8</v>
+        <v>1498.5</v>
       </c>
       <c r="D247">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E247">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="F247">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>2023-10-12 03:38:40</v>
+        <v>2023-10-14 10:23:00</v>
       </c>
       <c r="B248">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="C248">
-        <v>1555.01</v>
+        <v>1498.5</v>
       </c>
       <c r="D248">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E248">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="F248">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>2023-10-12 07:16:54</v>
+        <v>2023-10-14 14:03:47</v>
       </c>
       <c r="B249">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="C249">
-        <v>1568.88</v>
+        <v>1452.26</v>
       </c>
       <c r="D249">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E249">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="F249">
         <v>31</v>
@@ -5262,39 +5262,39 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>2023-10-12 10:53:27</v>
+        <v>2023-10-14 17:41:43</v>
       </c>
       <c r="B250">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="C250">
-        <v>1568.88</v>
+        <v>1498.5</v>
       </c>
       <c r="D250">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E250">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="F250">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>2023-10-12 14:32:26</v>
+        <v>2023-10-14 21:21:27</v>
       </c>
       <c r="B251">
-        <v>1000</v>
+        <v>999.5</v>
       </c>
       <c r="C251">
-        <v>1568.88</v>
+        <v>1520.71</v>
       </c>
       <c r="D251">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E251">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="F251">
         <v>32</v>
@@ -5302,39 +5302,39 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>2023-10-12 18:11:31</v>
+        <v>2023-10-15 01:02:21</v>
       </c>
       <c r="B252">
-        <v>998.5</v>
+        <v>1009.5</v>
       </c>
       <c r="C252">
-        <v>1568.88</v>
+        <v>1520.71</v>
       </c>
       <c r="D252">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E252">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="F252">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>2023-10-12 21:51:31</v>
+        <v>2023-10-15 04:42:23</v>
       </c>
       <c r="B253">
-        <v>998.5</v>
+        <v>1009.5</v>
       </c>
       <c r="C253">
-        <v>1568.88</v>
+        <v>1520.46</v>
       </c>
       <c r="D253">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E253">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="F253">
         <v>33</v>
@@ -5342,56 +5342,56 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>2023-10-13 01:33:45</v>
+        <v>2023-10-15 08:21:50</v>
       </c>
       <c r="B254">
-        <v>998.5</v>
+        <v>1009.5</v>
       </c>
       <c r="C254">
-        <v>1568.88</v>
+        <v>1520.46</v>
       </c>
       <c r="D254">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E254">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="F254">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>2023-10-13 05:11:38</v>
+        <v>2023-10-15 12:02:34</v>
       </c>
       <c r="B255">
-        <v>998.5</v>
+        <v>1018</v>
       </c>
       <c r="C255">
-        <v>1569.33</v>
+        <v>1520.46</v>
       </c>
       <c r="D255">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E255">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="F255">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>2023-10-13 08:47:57</v>
+        <v>2023-10-15 15:44:09</v>
       </c>
       <c r="B256">
-        <v>998.5</v>
+        <v>1018</v>
       </c>
       <c r="C256">
-        <v>1571.88</v>
+        <v>1520.46</v>
       </c>
       <c r="D256">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E256">
         <v>980</v>
@@ -5402,159 +5402,159 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>2023-10-13 12:25:16</v>
+        <v>2023-10-15 19:21:55</v>
       </c>
       <c r="B257">
-        <v>998.5</v>
+        <v>1018</v>
       </c>
       <c r="C257">
-        <v>1571.88</v>
+        <v>1520.46</v>
       </c>
       <c r="D257">
         <v>186</v>
       </c>
       <c r="E257">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="F257">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>2023-10-13 16:03:28</v>
+        <v>2023-10-15 22:58:53</v>
       </c>
       <c r="B258">
-        <v>1000</v>
+        <v>1025.72</v>
       </c>
       <c r="C258">
-        <v>1571.88</v>
+        <v>1520.46</v>
       </c>
       <c r="D258">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E258">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="F258">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>2023-10-13 19:41:19</v>
+        <v>2023-10-16 02:34:10</v>
       </c>
       <c r="B259">
-        <v>1010.22</v>
+        <v>1015.49</v>
       </c>
       <c r="C259">
-        <v>1571.88</v>
+        <v>1520.46</v>
       </c>
       <c r="D259">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E259">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="F259">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>2023-10-13 23:22:23</v>
+        <v>2023-10-16 06:13:03</v>
       </c>
       <c r="B260">
-        <v>1010.22</v>
+        <v>1015.49</v>
       </c>
       <c r="C260">
-        <v>1526.97</v>
+        <v>1494.17</v>
       </c>
       <c r="D260">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E260">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="F260">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>2023-10-14 03:03:29</v>
+        <v>2023-10-16 09:50:57</v>
       </c>
       <c r="B261">
-        <v>1010.22</v>
+        <v>1015.49</v>
       </c>
       <c r="C261">
-        <v>1526.97</v>
+        <v>1494.17</v>
       </c>
       <c r="D261">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E261">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="F261">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>2023-10-14 06:43:37</v>
+        <v>2023-10-16 13:27:00</v>
       </c>
       <c r="B262">
-        <v>1010.22</v>
+        <v>1014</v>
       </c>
       <c r="C262">
-        <v>1498.5</v>
+        <v>1494.17</v>
       </c>
       <c r="D262">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E262">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="F262">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>2023-10-14 10:23:00</v>
+        <v>2023-10-16 13:31:51</v>
       </c>
       <c r="B263">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="C263">
-        <v>1498.5</v>
+        <v>1494.17</v>
       </c>
       <c r="D263">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E263">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="F263">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>2023-10-14 14:03:47</v>
+        <v>2023-10-16 17:13:11</v>
       </c>
       <c r="B264">
-        <v>1010</v>
+        <v>1010.41</v>
       </c>
       <c r="C264">
-        <v>1452.26</v>
+        <v>1494.17</v>
       </c>
       <c r="D264">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E264">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="F264">
         <v>31</v>
@@ -5562,22 +5562,162 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>2023-10-14 17:41:43</v>
+        <v>2023-10-16 20:52:43</v>
       </c>
       <c r="B265">
-        <v>1009</v>
+        <v>1008.88</v>
       </c>
       <c r="C265">
-        <v>1498.5</v>
+        <v>1494.17</v>
       </c>
       <c r="D265">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E265">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="F265">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>2023-10-17 00:31:17</v>
+      </c>
+      <c r="B266">
+        <v>998.88</v>
+      </c>
+      <c r="C266">
+        <v>1494.17</v>
+      </c>
+      <c r="D266">
+        <v>200</v>
+      </c>
+      <c r="E266">
+        <v>983</v>
+      </c>
+      <c r="F266">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>2023-10-17 04:07:39</v>
+      </c>
+      <c r="B267">
+        <v>998.78</v>
+      </c>
+      <c r="C267">
+        <v>1521.88</v>
+      </c>
+      <c r="D267">
+        <v>199</v>
+      </c>
+      <c r="E267">
+        <v>968</v>
+      </c>
+      <c r="F267">
         <v>29</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>2023-10-17 04:12:17</v>
+      </c>
+      <c r="B268">
+        <v>998.78</v>
+      </c>
+      <c r="C268">
+        <v>1521.88</v>
+      </c>
+      <c r="D268">
+        <v>199</v>
+      </c>
+      <c r="E268">
+        <v>968</v>
+      </c>
+      <c r="F268">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>2023-10-17 07:51:55</v>
+      </c>
+      <c r="B269">
+        <v>998.78</v>
+      </c>
+      <c r="C269">
+        <v>1522.1</v>
+      </c>
+      <c r="D269">
+        <v>199</v>
+      </c>
+      <c r="E269">
+        <v>968</v>
+      </c>
+      <c r="F269">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>2023-10-17 11:26:14</v>
+      </c>
+      <c r="B270">
+        <v>998.78</v>
+      </c>
+      <c r="C270">
+        <v>1522.1</v>
+      </c>
+      <c r="D270">
+        <v>194</v>
+      </c>
+      <c r="E270">
+        <v>968</v>
+      </c>
+      <c r="F270">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>2023-10-17 11:30:23</v>
+      </c>
+      <c r="B271">
+        <v>998.78</v>
+      </c>
+      <c r="C271">
+        <v>1522.1</v>
+      </c>
+      <c r="D271">
+        <v>194</v>
+      </c>
+      <c r="E271">
+        <v>968</v>
+      </c>
+      <c r="F271">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>2023-10-17 15:06:40</v>
+      </c>
+      <c r="B272">
+        <v>998.78</v>
+      </c>
+      <c r="C272">
+        <v>1522.1</v>
+      </c>
+      <c r="D272">
+        <v>198</v>
+      </c>
+      <c r="E272">
+        <v>968</v>
+      </c>
+      <c r="F272">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5589,7 +5729,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F265"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F272"/>
   </ignoredErrors>
 </worksheet>
 </file>